--- a/data/taxa_per_stage_species_pyrate.xlsx
+++ b/data/taxa_per_stage_species_pyrate.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,411 +378,542 @@
           <t>max_div</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="B2">
-        <v>109.4804017056051</v>
+        <v>133.6023839780927</v>
       </c>
       <c r="C2">
-        <v>79.72012181984465</v>
+        <v>102.2823423523984</v>
       </c>
       <c r="D2">
-        <v>379.9644897808132</v>
+        <v>190.2534611003716</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pleistocene</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.58</v>
+        <v>5.333</v>
       </c>
       <c r="B3">
-        <v>133.6023839780927</v>
+        <v>165.8943943889172</v>
       </c>
       <c r="C3">
-        <v>102.2823423523984</v>
+        <v>149.7519494060043</v>
       </c>
       <c r="D3">
-        <v>190.2534611003716</v>
+        <v>196.8685641114814</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pliocene</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5.333</v>
+        <v>11.63</v>
       </c>
       <c r="B4">
-        <v>165.8943943889172</v>
+        <v>191.1263181538563</v>
       </c>
       <c r="C4">
-        <v>149.7519494060043</v>
+        <v>176.6231030855756</v>
       </c>
       <c r="D4">
-        <v>196.8685641114814</v>
+        <v>209.7941955498567</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tortonian</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>11.63</v>
+        <v>13.82</v>
       </c>
       <c r="B5">
-        <v>191.1263181538563</v>
+        <v>185.3897427995795</v>
       </c>
       <c r="C5">
-        <v>176.6231030855756</v>
+        <v>166.4331425199401</v>
       </c>
       <c r="D5">
-        <v>209.7941955498567</v>
+        <v>210.2732464788215</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Serravallian</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>13.82</v>
+        <v>15.97</v>
       </c>
       <c r="B6">
-        <v>185.3897427995795</v>
+        <v>148.158927234378</v>
       </c>
       <c r="C6">
-        <v>166.4331425199401</v>
+        <v>127.2834204425134</v>
       </c>
       <c r="D6">
-        <v>210.2732464788215</v>
+        <v>170.5201285686175</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Langhian</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>15.97</v>
+        <v>20.44</v>
       </c>
       <c r="B7">
-        <v>148.158927234378</v>
+        <v>203.8768531169937</v>
       </c>
       <c r="C7">
-        <v>127.2834204425134</v>
+        <v>193.9677506022973</v>
       </c>
       <c r="D7">
-        <v>170.5201285686175</v>
+        <v>219.4151737526154</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Burdigalian</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>20.44</v>
+        <v>23.03</v>
       </c>
       <c r="B8">
-        <v>203.8768531169937</v>
+        <v>159.072318370541</v>
       </c>
       <c r="C8">
-        <v>193.9677506022973</v>
+        <v>112.6581437187224</v>
       </c>
       <c r="D8">
-        <v>219.4151737526154</v>
+        <v>210.5383475129396</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aquitanian</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>23.03</v>
+        <v>27.82</v>
       </c>
       <c r="B9">
-        <v>159.072318370541</v>
+        <v>131.8848061623277</v>
       </c>
       <c r="C9">
-        <v>112.6581437187224</v>
+        <v>118.6700395769676</v>
       </c>
       <c r="D9">
-        <v>210.5383475129396</v>
+        <v>145.166727854924</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chattian</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>27.82</v>
+        <v>33.9</v>
       </c>
       <c r="B10">
-        <v>131.8848061623277</v>
+        <v>171.1888547305891</v>
       </c>
       <c r="C10">
-        <v>118.6700395769676</v>
+        <v>166.9966699835419</v>
       </c>
       <c r="D10">
-        <v>145.166727854924</v>
+        <v>178.2270993039609</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rupelian</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33.9</v>
+        <v>37.71</v>
       </c>
       <c r="B11">
-        <v>171.1888547305891</v>
+        <v>207.7528561497786</v>
       </c>
       <c r="C11">
-        <v>166.9966699835419</v>
+        <v>140.8234249239575</v>
       </c>
       <c r="D11">
-        <v>178.2270993039609</v>
+        <v>284.9702141564898</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Priabonian</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.71</v>
+        <v>41.2</v>
       </c>
       <c r="B12">
-        <v>207.7528561497786</v>
+        <v>264.2973302535722</v>
       </c>
       <c r="C12">
-        <v>140.8234249239575</v>
+        <v>253.4998663966513</v>
       </c>
       <c r="D12">
-        <v>284.9702141564898</v>
+        <v>281.3940142715736</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bartonian</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>41.2</v>
+        <v>47.8</v>
       </c>
       <c r="B13">
-        <v>264.2973302535722</v>
+        <v>217.3038095365768</v>
       </c>
       <c r="C13">
-        <v>253.4998663966513</v>
+        <v>178.8436509997097</v>
       </c>
       <c r="D13">
-        <v>281.3940142715736</v>
+        <v>251.0775909807279</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lutetian</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>47.8</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>217.3038095365768</v>
+        <v>220.1443622027975</v>
       </c>
       <c r="C14">
-        <v>178.8436509997097</v>
+        <v>199.5491442809239</v>
       </c>
       <c r="D14">
-        <v>251.0775909807279</v>
+        <v>249.2248215745199</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ypresian</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>56</v>
+        <v>59.2</v>
       </c>
       <c r="B15">
-        <v>220.1443622027975</v>
+        <v>123.9611346425066</v>
       </c>
       <c r="C15">
-        <v>199.5491442809239</v>
+        <v>100.1126188026989</v>
       </c>
       <c r="D15">
-        <v>249.2248215745199</v>
+        <v>148.3169184732837</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thanetian</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>59.2</v>
+        <v>61.6</v>
       </c>
       <c r="B16">
-        <v>123.9611346425066</v>
+        <v>124.2871405423507</v>
       </c>
       <c r="C16">
-        <v>100.1126188026989</v>
+        <v>85.62644439855633</v>
       </c>
       <c r="D16">
-        <v>148.3169184732837</v>
+        <v>184.0315150704266</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Selandian</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>61.6</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>124.2871405423507</v>
+        <v>186.1922076264312</v>
       </c>
       <c r="C17">
-        <v>85.62644439855633</v>
+        <v>170.4479612842823</v>
       </c>
       <c r="D17">
-        <v>184.0315150704266</v>
+        <v>206.8387752696608</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Danian</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>66</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="B18">
-        <v>186.1922076264312</v>
+        <v>191.8585366140733</v>
       </c>
       <c r="C18">
-        <v>170.4479612842823</v>
+        <v>173.6791505101416</v>
       </c>
       <c r="D18">
-        <v>206.8387752696608</v>
+        <v>213.1504419142955</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maastrichtian</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>72.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="B19">
-        <v>191.8585366140733</v>
+        <v>128.736229263477</v>
       </c>
       <c r="C19">
-        <v>173.6791505101416</v>
+        <v>78.55723389522637</v>
       </c>
       <c r="D19">
-        <v>213.1504419142955</v>
+        <v>176.4351628565637</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Campanian</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>83.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="B20">
-        <v>128.736229263477</v>
+        <v>133.9225989648766</v>
       </c>
       <c r="C20">
-        <v>78.55723389522637</v>
+        <v>126.6351024340833</v>
       </c>
       <c r="D20">
-        <v>176.4351628565637</v>
+        <v>158.7641508281241</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Santonian</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>86.3</v>
+        <v>89.8</v>
       </c>
       <c r="B21">
-        <v>133.9225989648766</v>
+        <v>89.10064393920226</v>
       </c>
       <c r="C21">
-        <v>126.6351024340833</v>
+        <v>71.35305273665531</v>
       </c>
       <c r="D21">
-        <v>158.7641508281241</v>
+        <v>123.7692377142991</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Coniacian</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>89.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="B22">
-        <v>89.10064393920226</v>
+        <v>141.5812716163036</v>
       </c>
       <c r="C22">
-        <v>71.35305273665531</v>
+        <v>128.043132826234</v>
       </c>
       <c r="D22">
-        <v>123.7692377142991</v>
+        <v>162.373454278762</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Turonian</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>93.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="B23">
-        <v>141.5812716163036</v>
+        <v>113.1605907061134</v>
       </c>
       <c r="C23">
-        <v>128.043132826234</v>
+        <v>96.58771901471742</v>
       </c>
       <c r="D23">
-        <v>162.373454278762</v>
+        <v>129.4791363453334</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cenomanian</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>100.5</v>
+        <v>113</v>
       </c>
       <c r="B24">
-        <v>113.1605907061134</v>
+        <v>42.13098441884214</v>
       </c>
       <c r="C24">
-        <v>96.58771901471742</v>
+        <v>22.29175715799605</v>
       </c>
       <c r="D24">
-        <v>129.4791363453334</v>
+        <v>91.56260833477339</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Albian</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B25">
-        <v>42.13098441884214</v>
+        <v>26.00498228379427</v>
       </c>
       <c r="C25">
-        <v>22.29175715799605</v>
+        <v>16.15832127430686</v>
       </c>
       <c r="D25">
-        <v>91.56260833477339</v>
+        <v>44.8068547429353</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aptian</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>125</v>
+        <v>129.4</v>
       </c>
       <c r="B26">
-        <v>26.00498228379427</v>
+        <v>19.04068222632223</v>
       </c>
       <c r="C26">
-        <v>16.15832127430686</v>
+        <v>12.61980094749417</v>
       </c>
       <c r="D26">
-        <v>44.8068547429353</v>
+        <v>142.9523644818548</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Barremian</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>129.4</v>
+        <v>132.6</v>
       </c>
       <c r="B27">
-        <v>19.04068222632223</v>
+        <v>23.13227428962901</v>
       </c>
       <c r="C27">
-        <v>12.61980094749417</v>
+        <v>17.04008710797642</v>
       </c>
       <c r="D27">
-        <v>142.9523644818548</v>
+        <v>42.64471912132402</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hauterivian</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>132.6</v>
+        <v>139.8</v>
       </c>
       <c r="B28">
-        <v>23.13227428962901</v>
+        <v>13.05561641204627</v>
       </c>
       <c r="C28">
-        <v>17.04008710797642</v>
+        <v>7.49625406078143</v>
       </c>
       <c r="D28">
-        <v>42.64471912132402</v>
+        <v>65.55862925344414</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Valanginian</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="B29">
-        <v>13.05561641204627</v>
+        <v>1.18287989491091</v>
       </c>
       <c r="C29">
-        <v>7.49625406078143</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>65.55862925344414</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>145</v>
-      </c>
-      <c r="B30">
-        <v>1.18287989491091</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
         <v>19.04285923095844</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Berriasian</t>
+        </is>
       </c>
     </row>
   </sheetData>
